--- a/RICOH Aficio SP 5200DN/2024/05-2024/Registro Impressão 09-05-2024 - Expedição.xlsx
+++ b/RICOH Aficio SP 5200DN/2024/05-2024/Registro Impressão 09-05-2024 - Expedição.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.100.210\alegria\ERICK\Registro Impressões\Impressora - Expedição\05-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB493DE0-0944-4EA8-928F-B80148FCC62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E63D6D-EB44-4623-8D8B-CDC2923ED5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="6120" windowWidth="23232" windowHeight="6216" xr2:uid="{1C3813F7-71ED-40A3-9BEB-291F938A7D5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C3813F7-71ED-40A3-9BEB-291F938A7D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -716,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187DEDF8-AA69-47FC-96F3-8C2790BAD2E2}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,11 +783,11 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <f>COUNT(G2:G101)</f>
+        <f>COUNT(G2:G1000)</f>
         <v>79</v>
       </c>
       <c r="I2" s="2">
-        <f>SUM(G2:G102)</f>
+        <f>SUM(G2:G1000)</f>
         <v>187</v>
       </c>
     </row>
